--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H2">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I2">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J2">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.879820488786145</v>
+        <v>0.886429</v>
       </c>
       <c r="N2">
-        <v>0.879820488786145</v>
+        <v>2.659287</v>
       </c>
       <c r="O2">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438365</v>
       </c>
       <c r="P2">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438364</v>
       </c>
       <c r="Q2">
-        <v>26.04795679390568</v>
+        <v>29.15418118453533</v>
       </c>
       <c r="R2">
-        <v>26.04795679390568</v>
+        <v>262.387630660818</v>
       </c>
       <c r="S2">
-        <v>0.06796616345728326</v>
+        <v>0.05754716561787886</v>
       </c>
       <c r="T2">
-        <v>0.06796616345728326</v>
+        <v>0.05754716561787884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H3">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I3">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J3">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.186792092410097</v>
+        <v>0.3608536666666667</v>
       </c>
       <c r="N3">
-        <v>0.186792092410097</v>
+        <v>1.082561</v>
       </c>
       <c r="O3">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="P3">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="Q3">
-        <v>5.530164862669046</v>
+        <v>11.86828632536156</v>
       </c>
       <c r="R3">
-        <v>5.530164862669046</v>
+        <v>106.814576928254</v>
       </c>
       <c r="S3">
-        <v>0.01442969565619934</v>
+        <v>0.02342669939666405</v>
       </c>
       <c r="T3">
-        <v>0.01442969565619934</v>
+        <v>0.02342669939666405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H4">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I4">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J4">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.302179929848807</v>
+        <v>0.309008</v>
       </c>
       <c r="N4">
-        <v>0.302179929848807</v>
+        <v>0.9270240000000001</v>
       </c>
       <c r="O4">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="P4">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="Q4">
-        <v>8.946336050376285</v>
+        <v>10.16310975777067</v>
       </c>
       <c r="R4">
-        <v>8.946336050376285</v>
+        <v>91.467987819936</v>
       </c>
       <c r="S4">
-        <v>0.02334341012443336</v>
+        <v>0.0200608673150918</v>
       </c>
       <c r="T4">
-        <v>0.02334341012443336</v>
+        <v>0.0200608673150918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H5">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I5">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J5">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0728136205029298</v>
+        <v>0.2827466666666666</v>
       </c>
       <c r="N5">
-        <v>0.0728136205029298</v>
+        <v>0.84824</v>
       </c>
       <c r="O5">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="P5">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="Q5">
-        <v>2.155719337117155</v>
+        <v>9.299388387928888</v>
       </c>
       <c r="R5">
-        <v>2.155719337117155</v>
+        <v>83.69449549136</v>
       </c>
       <c r="S5">
-        <v>0.005624854724452345</v>
+        <v>0.01835597577986489</v>
       </c>
       <c r="T5">
-        <v>0.005624854724452345</v>
+        <v>0.01835597577986489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H6">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I6">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J6">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.189627324586783</v>
+        <v>0.228958</v>
       </c>
       <c r="N6">
-        <v>0.189627324586783</v>
+        <v>0.686874</v>
       </c>
       <c r="O6">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="P6">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="Q6">
-        <v>5.614104718787762</v>
+        <v>7.530307577537333</v>
       </c>
       <c r="R6">
-        <v>5.614104718787762</v>
+        <v>67.772768197836</v>
       </c>
       <c r="S6">
-        <v>0.01464871744077479</v>
+        <v>0.01486400371100033</v>
       </c>
       <c r="T6">
-        <v>0.01464871744077479</v>
+        <v>0.01486400371100032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H7">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I7">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J7">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.879820488786145</v>
+        <v>0.886429</v>
       </c>
       <c r="N7">
-        <v>0.879820488786145</v>
+        <v>2.659287</v>
       </c>
       <c r="O7">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438365</v>
       </c>
       <c r="P7">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438364</v>
       </c>
       <c r="Q7">
-        <v>38.79363488308459</v>
+        <v>39.48786848972267</v>
       </c>
       <c r="R7">
-        <v>38.79363488308459</v>
+        <v>355.390816407504</v>
       </c>
       <c r="S7">
-        <v>0.1012230844218376</v>
+        <v>0.07794473435873683</v>
       </c>
       <c r="T7">
-        <v>0.1012230844218376</v>
+        <v>0.07794473435873681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H8">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I8">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J8">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.186792092410097</v>
+        <v>0.3608536666666667</v>
       </c>
       <c r="N8">
-        <v>0.186792092410097</v>
+        <v>1.082561</v>
       </c>
       <c r="O8">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="P8">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="Q8">
-        <v>8.236162176675615</v>
+        <v>16.07499544054578</v>
       </c>
       <c r="R8">
-        <v>8.236162176675615</v>
+        <v>144.674958964912</v>
       </c>
       <c r="S8">
-        <v>0.02149037443472718</v>
+        <v>0.03173028318196889</v>
       </c>
       <c r="T8">
-        <v>0.02149037443472718</v>
+        <v>0.03173028318196889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H9">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I9">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J9">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.302179929848807</v>
+        <v>0.309008</v>
       </c>
       <c r="N9">
-        <v>0.302179929848807</v>
+        <v>0.9270240000000001</v>
       </c>
       <c r="O9">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="P9">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="Q9">
-        <v>13.32392006888137</v>
+        <v>13.76541975304533</v>
       </c>
       <c r="R9">
-        <v>13.32392006888137</v>
+        <v>123.888777777408</v>
       </c>
       <c r="S9">
-        <v>0.03476571066430981</v>
+        <v>0.027171433329375</v>
       </c>
       <c r="T9">
-        <v>0.03476571066430981</v>
+        <v>0.02717143332937499</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H10">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I10">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J10">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0728136205029298</v>
+        <v>0.2827466666666666</v>
       </c>
       <c r="N10">
-        <v>0.0728136205029298</v>
+        <v>0.84824</v>
       </c>
       <c r="O10">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="P10">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="Q10">
-        <v>3.210546974421202</v>
+        <v>12.59555270556444</v>
       </c>
       <c r="R10">
-        <v>3.210546974421202</v>
+        <v>113.35997435008</v>
       </c>
       <c r="S10">
-        <v>0.008377185288554028</v>
+        <v>0.02486224370384051</v>
       </c>
       <c r="T10">
-        <v>0.008377185288554028</v>
+        <v>0.02486224370384051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H11">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I11">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J11">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.189627324586783</v>
+        <v>0.228958</v>
       </c>
       <c r="N11">
-        <v>0.189627324586783</v>
+        <v>0.686874</v>
       </c>
       <c r="O11">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="P11">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="Q11">
-        <v>8.361175134742636</v>
+        <v>10.19942194317867</v>
       </c>
       <c r="R11">
-        <v>8.361175134742636</v>
+        <v>91.794797488608</v>
       </c>
       <c r="S11">
-        <v>0.0218165670497368</v>
+        <v>0.0201325435983115</v>
       </c>
       <c r="T11">
-        <v>0.0218165670497368</v>
+        <v>0.0201325435983115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H12">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I12">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J12">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.879820488786145</v>
+        <v>0.886429</v>
       </c>
       <c r="N12">
-        <v>0.879820488786145</v>
+        <v>2.659287</v>
       </c>
       <c r="O12">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438365</v>
       </c>
       <c r="P12">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438364</v>
       </c>
       <c r="Q12">
-        <v>78.4883538729224</v>
+        <v>82.10189726945532</v>
       </c>
       <c r="R12">
-        <v>78.4883538729224</v>
+        <v>738.9170754250979</v>
       </c>
       <c r="S12">
-        <v>0.2047973409595119</v>
+        <v>0.1620601672810358</v>
       </c>
       <c r="T12">
-        <v>0.2047973409595119</v>
+        <v>0.1620601672810357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H13">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I13">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J13">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.186792092410097</v>
+        <v>0.3608536666666667</v>
       </c>
       <c r="N13">
-        <v>0.186792092410097</v>
+        <v>1.082561</v>
       </c>
       <c r="O13">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="P13">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="Q13">
-        <v>16.66363086176198</v>
+        <v>33.42260989878822</v>
       </c>
       <c r="R13">
-        <v>16.66363086176198</v>
+        <v>300.803489089094</v>
       </c>
       <c r="S13">
-        <v>0.04347991928515964</v>
+        <v>0.06597257714264212</v>
       </c>
       <c r="T13">
-        <v>0.04347991928515964</v>
+        <v>0.06597257714264212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H14">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I14">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J14">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.302179929848807</v>
+        <v>0.309008</v>
       </c>
       <c r="N14">
-        <v>0.302179929848807</v>
+        <v>0.9270240000000001</v>
       </c>
       <c r="O14">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="P14">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="Q14">
-        <v>26.95732319213242</v>
+        <v>28.62061492961066</v>
       </c>
       <c r="R14">
-        <v>26.95732319213242</v>
+        <v>257.585534366496</v>
       </c>
       <c r="S14">
-        <v>0.07033894631136492</v>
+        <v>0.05649396417668905</v>
       </c>
       <c r="T14">
-        <v>0.07033894631136492</v>
+        <v>0.05649396417668904</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H15">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I15">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J15">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0728136205029298</v>
+        <v>0.2827466666666666</v>
       </c>
       <c r="N15">
-        <v>0.0728136205029298</v>
+        <v>0.84824</v>
       </c>
       <c r="O15">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="P15">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="Q15">
-        <v>6.495667338558381</v>
+        <v>26.18826525299555</v>
       </c>
       <c r="R15">
-        <v>6.495667338558381</v>
+        <v>235.69438727696</v>
       </c>
       <c r="S15">
-        <v>0.01694895271785338</v>
+        <v>0.05169277189504771</v>
       </c>
       <c r="T15">
-        <v>0.01694895271785338</v>
+        <v>0.05169277189504771</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H16">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I16">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J16">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.189627324586783</v>
+        <v>0.228958</v>
       </c>
       <c r="N16">
-        <v>0.189627324586783</v>
+        <v>0.686874</v>
       </c>
       <c r="O16">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="P16">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="Q16">
-        <v>16.91656053233904</v>
+        <v>21.20630777537733</v>
       </c>
       <c r="R16">
-        <v>16.91656053233904</v>
+        <v>190.856769978396</v>
       </c>
       <c r="S16">
-        <v>0.0441398811957867</v>
+        <v>0.04185893261652245</v>
       </c>
       <c r="T16">
-        <v>0.0441398811957867</v>
+        <v>0.04185893261652245</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H17">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I17">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J17">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.879820488786145</v>
+        <v>0.886429</v>
       </c>
       <c r="N17">
-        <v>0.879820488786145</v>
+        <v>2.659287</v>
       </c>
       <c r="O17">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438365</v>
       </c>
       <c r="P17">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438364</v>
       </c>
       <c r="Q17">
-        <v>53.29854224839916</v>
+        <v>55.31634272034367</v>
       </c>
       <c r="R17">
-        <v>53.29854224839916</v>
+        <v>497.8470844830929</v>
       </c>
       <c r="S17">
-        <v>0.1390703103184337</v>
+        <v>0.109188411629668</v>
       </c>
       <c r="T17">
-        <v>0.1390703103184337</v>
+        <v>0.1091884116296679</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H18">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I18">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J18">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.186792092410097</v>
+        <v>0.3608536666666667</v>
       </c>
       <c r="N18">
-        <v>0.186792092410097</v>
+        <v>1.082561</v>
       </c>
       <c r="O18">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="P18">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="Q18">
-        <v>11.31565626838493</v>
+        <v>22.51856053584211</v>
       </c>
       <c r="R18">
-        <v>11.31565626838493</v>
+        <v>202.667044822579</v>
       </c>
       <c r="S18">
-        <v>0.02952560731148866</v>
+        <v>0.04444917606945958</v>
       </c>
       <c r="T18">
-        <v>0.02952560731148866</v>
+        <v>0.04444917606945958</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H19">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I19">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J19">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.302179929848807</v>
+        <v>0.309008</v>
       </c>
       <c r="N19">
-        <v>0.302179929848807</v>
+        <v>0.9270240000000001</v>
       </c>
       <c r="O19">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="P19">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="Q19">
-        <v>18.30572254561317</v>
+        <v>19.28320534563733</v>
       </c>
       <c r="R19">
-        <v>18.30572254561317</v>
+        <v>173.548848110736</v>
       </c>
       <c r="S19">
-        <v>0.04776458056126355</v>
+        <v>0.03806293871349024</v>
       </c>
       <c r="T19">
-        <v>0.04776458056126355</v>
+        <v>0.03806293871349023</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H20">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I20">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J20">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0728136205029298</v>
+        <v>0.2827466666666666</v>
       </c>
       <c r="N20">
-        <v>0.0728136205029298</v>
+        <v>0.84824</v>
       </c>
       <c r="O20">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="P20">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="Q20">
-        <v>4.410967780471426</v>
+        <v>17.64440413881778</v>
       </c>
       <c r="R20">
-        <v>4.410967780471426</v>
+        <v>158.79963724936</v>
       </c>
       <c r="S20">
-        <v>0.01150940780285972</v>
+        <v>0.03482812433586504</v>
       </c>
       <c r="T20">
-        <v>0.01150940780285972</v>
+        <v>0.03482812433586504</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H21">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I21">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J21">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.189627324586783</v>
+        <v>0.228958</v>
       </c>
       <c r="N21">
-        <v>0.189627324586783</v>
+        <v>0.686874</v>
       </c>
       <c r="O21">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="P21">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="Q21">
-        <v>11.48741146604077</v>
+        <v>14.28779879332067</v>
       </c>
       <c r="R21">
-        <v>11.48741146604077</v>
+        <v>128.590189139886</v>
       </c>
       <c r="S21">
-        <v>0.02997376307014861</v>
+        <v>0.02820255243218071</v>
       </c>
       <c r="T21">
-        <v>0.02997376307014861</v>
+        <v>0.02820255243218071</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H22">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I22">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J22">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.879820488786145</v>
+        <v>0.886429</v>
       </c>
       <c r="N22">
-        <v>0.879820488786145</v>
+        <v>2.659287</v>
       </c>
       <c r="O22">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438365</v>
       </c>
       <c r="P22">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438364</v>
       </c>
       <c r="Q22">
-        <v>10.08026111857416</v>
+        <v>11.09544952158</v>
       </c>
       <c r="R22">
-        <v>10.08026111857416</v>
+        <v>99.85904569422</v>
       </c>
       <c r="S22">
-        <v>0.02630212727615557</v>
+        <v>0.02190120405651708</v>
       </c>
       <c r="T22">
-        <v>0.02630212727615557</v>
+        <v>0.02190120405651707</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H23">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I23">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J23">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.186792092410097</v>
+        <v>0.3608536666666667</v>
       </c>
       <c r="N23">
-        <v>0.186792092410097</v>
+        <v>1.082561</v>
       </c>
       <c r="O23">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="P23">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="Q23">
-        <v>2.140110500241243</v>
+        <v>4.51681256274</v>
       </c>
       <c r="R23">
-        <v>2.140110500241243</v>
+        <v>40.65131306466</v>
       </c>
       <c r="S23">
-        <v>0.005584127047925543</v>
+        <v>0.008915694080641608</v>
       </c>
       <c r="T23">
-        <v>0.005584127047925543</v>
+        <v>0.008915694080641608</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H24">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I24">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J24">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.302179929848807</v>
+        <v>0.309008</v>
       </c>
       <c r="N24">
-        <v>0.302179929848807</v>
+        <v>0.9270240000000001</v>
       </c>
       <c r="O24">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="P24">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="Q24">
-        <v>3.462129646322421</v>
+        <v>3.86785931616</v>
       </c>
       <c r="R24">
-        <v>3.462129646322421</v>
+        <v>34.81073384544001</v>
       </c>
       <c r="S24">
-        <v>0.009033632515365268</v>
+        <v>0.00763473133561315</v>
       </c>
       <c r="T24">
-        <v>0.009033632515365268</v>
+        <v>0.007634731335613148</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H25">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I25">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J25">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.0728136205029298</v>
+        <v>0.2827466666666666</v>
       </c>
       <c r="N25">
-        <v>0.0728136205029298</v>
+        <v>0.84824</v>
       </c>
       <c r="O25">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="P25">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="Q25">
-        <v>0.8342387077970216</v>
+        <v>3.5391456816</v>
       </c>
       <c r="R25">
-        <v>0.8342387077970216</v>
+        <v>31.8523111344</v>
       </c>
       <c r="S25">
-        <v>0.002176754392873954</v>
+        <v>0.00698588656617358</v>
       </c>
       <c r="T25">
-        <v>0.002176754392873954</v>
+        <v>0.00698588656617358</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H26">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I26">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J26">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.189627324586783</v>
+        <v>0.228958</v>
       </c>
       <c r="N26">
-        <v>0.189627324586783</v>
+        <v>0.686874</v>
       </c>
       <c r="O26">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="P26">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="Q26">
-        <v>2.172594263732827</v>
+        <v>2.86587186516</v>
       </c>
       <c r="R26">
-        <v>2.172594263732827</v>
+        <v>25.79284678644</v>
       </c>
       <c r="S26">
-        <v>0.005668885971500432</v>
+        <v>0.00565691767572139</v>
       </c>
       <c r="T26">
-        <v>0.005668885971500432</v>
+        <v>0.005656917675721389</v>
       </c>
     </row>
   </sheetData>
